--- a/data/long_dif/P24_3-Urba-long_dif.xlsx
+++ b/data/long_dif/P24_3-Urba-long_dif.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +589,62 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -627,52 +675,82 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>8,37%</t>
+          <t>7,74%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>12,7%</t>
+          <t>13,74%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>12,18%</t>
+          <t>11,94%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>10,94%</t>
+          <t>11,55%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>11,18%</t>
+          <t>15,9%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>10,42%</t>
+          <t>10,87%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>9,71%</t>
+          <t>11,07%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>11,9%</t>
+          <t>10,65%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>11,26%</t>
+          <t>11,45%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>14,61%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>9,37%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>12,34%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>11,27%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>11,5%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>15,24%</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,84; 11,85</t>
+          <t>5,6; 10,23</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>9,64; 16,72</t>
+          <t>10,29; 18,84</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9,25; 16,32</t>
+          <t>9,1; 15,74</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>8,19; 14,1</t>
+          <t>8,39; 15,9</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>8,49; 14,38</t>
+          <t>11,66; 22,59</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>8,33; 13,25</t>
+          <t>8,21; 13,92</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>7,72; 11,89</t>
+          <t>8,5; 14,41</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>9,71; 14,27</t>
+          <t>8,4; 13,42</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>9,36; 13,57</t>
+          <t>8,51; 15,2</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>11,34; 18,67</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>7,69; 11,23</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>10,31; 15,43</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>9,37; 13,33</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>9,2; 14,39</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>12,48; 18,7</t>
         </is>
       </c>
     </row>
@@ -733,52 +841,82 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>77,84%</t>
+          <t>77,9%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>76,05%</t>
+          <t>75,21%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>77,61%</t>
+          <t>77,59%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>75,04%</t>
+          <t>72,87%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>75,7%</t>
+          <t>63,19%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>75,72%</t>
+          <t>75,31%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>76,38%</t>
+          <t>75,45%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>75,87%</t>
+          <t>75,07%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>76,63%</t>
+          <t>69,81%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>63,85%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>76,55%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>75,34%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>76,28%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>71,28%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>63,53%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>72,87; 81,94</t>
+          <t>72,9; 81,53</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>71,36; 79,92</t>
+          <t>69,41; 79,81</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>73,2; 81,4</t>
+          <t>73,18; 81,5</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>70,85; 78,99</t>
+          <t>66,77; 78,48</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>71,31; 79,5</t>
+          <t>56,34; 69,97</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>71,96; 79,08</t>
+          <t>71,12; 79,23</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>73,21; 79,17</t>
+          <t>71,22; 79,03</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>72,61; 78,68</t>
+          <t>71,52; 78,54</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>73,74; 78,97</t>
+          <t>65,36; 74,89</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>59,02; 69,1</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>73,47; 79,1</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>71,96; 78,24</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>73,5; 78,62</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>67,32; 75,22</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>59,81; 67,27</t>
         </is>
       </c>
     </row>
@@ -839,52 +1007,82 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>13,79%</t>
+          <t>14,36%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>11,25%</t>
+          <t>11,05%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>10,21%</t>
+          <t>10,47%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>14,02%</t>
+          <t>15,58%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>13,12%</t>
+          <t>20,9%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>13,86%</t>
+          <t>13,82%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>13,91%</t>
+          <t>13,48%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>12,23%</t>
+          <t>14,28%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>12,11%</t>
+          <t>18,75%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>21,54%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>14,08%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>12,32%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>12,45%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>17,23%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>21,23%</t>
         </is>
       </c>
     </row>
@@ -897,104 +1095,160 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>10,72; 17,87</t>
+          <t>11,1; 18,68</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,33; 14,55</t>
+          <t>8,34; 14,55</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,89; 12,92</t>
+          <t>7,68; 13,31</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>11,31; 18,24</t>
+          <t>11,4; 20,65</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>10,03; 16,75</t>
+          <t>16,58; 26,14</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>11,17; 17,19</t>
+          <t>11,16; 17,43</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>11,72; 16,56</t>
+          <t>10,46; 16,74</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>10,05; 14,41</t>
+          <t>11,55; 17,68</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>10,37; 14,4</t>
+          <t>14,52; 22,93</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>17,33; 26,32</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>12,01; 17,14</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>10,18; 14,67</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>10,56; 14,43</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>14,25; 20,23</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>18,17; 24,76</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>8,89%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>11,34%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>12,33%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>10,63%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>11,44%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>12,03%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>9,78%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>11,39%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>12,17%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1007,100 +1261,164 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,02; 12,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,91; 18,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>9,07; 16,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>8,07; 13,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,63; 16,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>9,4; 15,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>7,83; 12,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>8,42; 15,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>10,02; 14,5</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>79,6%</t>
+          <t>9,7%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>77,7%</t>
+          <t>10,66%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>75,42%</t>
+          <t>12,36%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>76,65%</t>
+          <t>11,6%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>74,78%</t>
+          <t>12,24%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>76,7%</t>
+          <t>11,24%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>78,1%</t>
+          <t>11,73%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>76,21%</t>
+          <t>12,65%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>76,08%</t>
+          <t>10,86%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>8,63%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>10,48%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>11,21%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>12,51%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>11,23%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>10,56%</t>
         </is>
       </c>
     </row>
@@ -1113,47 +1431,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>70,52; 84,33</t>
+          <t>6,68; 13,78</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>71,25; 83,63</t>
+          <t>6,89; 17,19</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>70,76; 80,31</t>
+          <t>9,47; 16,56</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>72,09; 81,0</t>
+          <t>8,29; 16,96</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>69,52; 79,57</t>
+          <t>6,86; 20,07</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>71,96; 80,4</t>
+          <t>8,26; 14,71</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>73,17; 81,28</t>
+          <t>8,35; 17,98</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>72,0; 79,94</t>
+          <t>9,82; 16,05</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>72,71; 79,15</t>
+          <t>7,84; 15,18</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>4,25; 15,4</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>8,41; 13,16</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>8,34; 15,1</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>10,28; 14,86</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>8,49; 14,22</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>6,89; 14,98</t>
         </is>
       </c>
     </row>
@@ -1161,52 +1509,82 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>11,51%</t>
+          <t>81,43%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>10,96%</t>
+          <t>78,34%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>12,25%</t>
+          <t>75,24%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>12,72%</t>
+          <t>69,63%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>13,79%</t>
+          <t>67,62%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>11,28%</t>
+          <t>75,52%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>12,12%</t>
+          <t>73,77%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>12,4%</t>
+          <t>75,91%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>11,75%</t>
+          <t>67,71%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>66,06%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>78,42%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>76,02%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>75,58%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>68,65%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>66,89%</t>
         </is>
       </c>
     </row>
@@ -1219,104 +1597,160 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>7,64; 22,33</t>
+          <t>76,54; 85,5</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>7,6; 14,86</t>
+          <t>72,12; 83,23</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>9,11; 16,11</t>
+          <t>69,94; 79,6</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>9,31; 17,1</t>
+          <t>63,4; 75,47</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>10,17; 18,08</t>
+          <t>57,03; 78,33</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>8,35; 15,96</t>
+          <t>70,2; 80,06</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>9,46; 16,59</t>
+          <t>67,21; 78,44</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>10,03; 15,45</t>
+          <t>71,5; 79,72</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>9,59; 14,5</t>
+          <t>61,35; 73,11</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>53,99; 75,19</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>74,75; 81,48</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>71,62; 79,68</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>72,63; 78,93</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>63,78; 72,44</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>59,04; 73,68</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,92%</t>
+          <t>8,87%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>7,63%</t>
+          <t>10,99%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>18,1%</t>
+          <t>12,4%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>12,75%</t>
+          <t>18,77%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>9,49%</t>
+          <t>20,14%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>14,83%</t>
+          <t>13,24%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>7,37%</t>
+          <t>14,5%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>8,55%</t>
+          <t>11,44%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>16,53%</t>
+          <t>21,43%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>25,31%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>11,1%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>12,78%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>11,91%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>20,12%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>22,55%</t>
         </is>
       </c>
     </row>
@@ -1329,47 +1763,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,7</t>
+          <t>5,99; 12,03</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,36; 15,26</t>
+          <t>7,77; 14,65</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>11,24; 27,22</t>
+          <t>9,28; 15,93</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>7,93; 20,53</t>
+          <t>13,93; 24,52</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>4,75; 18,26</t>
+          <t>12,13; 30,08</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>9,19; 23,37</t>
+          <t>9,58; 18,27</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>4,46; 11,42</t>
+          <t>10,47; 19,59</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>4,93; 12,96</t>
+          <t>8,53; 15,62</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>11,98; 22,37</t>
+          <t>16,56; 27,81</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>16,8; 36,5</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>8,91; 14,14</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>10,37; 15,85</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>9,63; 14,82</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>16,61; 24,39</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>16,63; 30,25</t>
         </is>
       </c>
     </row>
@@ -1377,52 +1841,82 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>87,97%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>80,47%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>68,31%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>73,71%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>77,64%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>71,87%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>80,79%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>79,07%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>70,02%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1435,100 +1929,164 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>79,73; 93,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>71,15; 88,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>58,11; 77,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>64,46; 81,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>67,46; 85,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>62,31; 79,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>74,51; 86,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>72,56; 84,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>63,02; 75,7</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>10,11%</t>
+          <t>1,93%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>11,9%</t>
+          <t>8,33%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>13,59%</t>
+          <t>17,64%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>13,55%</t>
+          <t>8,59%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>12,87%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>13,3%</t>
+          <t>13,92%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>11,84%</t>
+          <t>9,57%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>12,38%</t>
+          <t>14,64%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>13,45%</t>
+          <t>9,93%</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>7,97%</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>8,94%</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>16,19%</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>9,24%</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1541,104 +2099,160 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>4,54; 17,58</t>
+          <t>0,0; 7,2</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>5,81; 20,02</t>
+          <t>3,95; 16,14</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>7,68; 21,26</t>
+          <t>11,17; 25,83</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>8,02; 21,26</t>
+          <t>3,24; 17,46</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>6,7; 21,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>7,85; 21,81</t>
+          <t>8,24; 21,85</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>7,7; 17,85</t>
+          <t>4,53; 17,16</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>8,13; 17,57</t>
+          <t>9,28; 22,61</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>9,2; 18,94</t>
+          <t>4,53; 19,2</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>4,85; 12,46</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>5,34; 14,06</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>11,87; 22,3</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>5,21; 14,89</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>7,81%</t>
+          <t>87,34%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>11,54%</t>
+          <t>79,95%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>12,98%</t>
+          <t>67,81%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>11,03%</t>
+          <t>76,62%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>11,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>11,54%</t>
+          <t>72,28%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>9,46%</t>
+          <t>77,06%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>11,31%</t>
+          <t>72,59%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>12,24%</t>
+          <t>74,57%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>79,76%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>78,52%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>70,12%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>75,62%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1651,47 +2265,77 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>5,87; 9,91</t>
+          <t>77,98; 93,38</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>9,18; 14,75</t>
+          <t>69,55; 87,77</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>10,5; 15,52</t>
+          <t>58,45; 77,3</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>9,22; 13,13</t>
+          <t>63,2; 87,25</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>8,98; 13,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>9,73; 13,53</t>
+          <t>63,63; 81,26</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>8,13; 10,94</t>
+          <t>68,27; 85,04</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>9,67; 13,25</t>
+          <t>63,83; 80,0</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>10,73; 13,77</t>
+          <t>63,7; 84,03</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>73,04; 85,36</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>72,23; 84,69</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>63,07; 76,24</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>67,45; 82,94</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1699,52 +2343,82 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>79,76%</t>
+          <t>10,73%</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>77,24%</t>
+          <t>11,73%</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>75,59%</t>
+          <t>14,55%</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>75,52%</t>
+          <t>14,79%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>75,56%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>75,67%</t>
+          <t>13,79%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>77,58%</t>
+          <t>13,37%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>76,38%</t>
+          <t>12,76%</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>75,63%</t>
+          <t>15,5%</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>12,27%</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>12,54%</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>13,69%</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>15,14%</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1757,47 +2431,77 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>75,89; 82,74</t>
+          <t>5,57; 19,07</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>73,73; 80,31</t>
+          <t>5,86; 19,73</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>72,34; 78,54</t>
+          <t>8,15; 22,22</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>72,63; 78,52</t>
+          <t>6,95; 28,41</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>72,5; 78,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>73,19; 78,38</t>
+          <t>8,38; 21,91</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>75,15; 79,77</t>
+          <t>7,05; 22,52</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>73,99; 78,7</t>
+          <t>6,76; 20,25</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>73,63; 77,74</t>
+          <t>8,34; 25,42</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>7,82; 18,09</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>7,9; 17,94</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>9,45; 19,06</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>9,6; 22,17</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1805,52 +2509,82 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>12,44%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>11,22%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>11,43%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>13,46%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>13,35%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>12,79%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>12,96%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>12,31%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>12,13%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1863,60 +2597,765 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>10,1; 16,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>9,15; 13,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>9,5; 13,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>11,29; 15,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>10,98; 15,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>10,82; 14,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>11,37; 15,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>10,87; 14,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>10,64; 13,77</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>7,83%</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>11,86%</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>12,82%</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>11,21%</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>15,0%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>11,37%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>11,16%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>11,87%</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>11,05%</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>13,34%</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>9,65%</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>11,5%</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>12,33%</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>11,13%</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>14,16%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>6,1; 9,71</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>9,3; 15,2</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>10,83; 15,31</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>8,89; 14,0</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>11,52; 19,29</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>9,56; 13,52</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>8,97; 13,63</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>10,22; 13,95</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>9,04; 13,51</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>10,46; 16,83</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>8,43; 11,12</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>9,85; 13,6</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>10,84; 13,77</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>9,41; 12,96</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>11,75; 16,97</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>80,44%</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>77,03%</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>75,45%</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>72,05%</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>64,29%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>75,04%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>74,98%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>75,12%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>69,52%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>64,32%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>77,67%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>75,98%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>75,28%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>70,76%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>64,3%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>77,34; 83,1</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>73,53; 80,37</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>72,45; 78,4</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>68,02; 76,18</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>59,39; 69,85</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>71,9; 77,76</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>71,58; 77,95</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>72,44; 77,56</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>65,45; 72,54</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>59,47; 68,99</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>75,37; 79,58</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>73,55; 78,16</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>73,26; 77,22</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>68,02; 73,59</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>61,06; 68,1</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>11,73%</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>11,11%</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>11,73%</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>16,74%</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>20,72%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>13,59%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>13,86%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>13,01%</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>19,42%</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>22,34%</t>
+        </is>
+      </c>
+      <c r="M32" s="2" t="inlineStr">
+        <is>
+          <t>12,69%</t>
+        </is>
+      </c>
+      <c r="N32" s="2" t="inlineStr">
+        <is>
+          <t>12,52%</t>
+        </is>
+      </c>
+      <c r="O32" s="2" t="inlineStr">
+        <is>
+          <t>12,38%</t>
+        </is>
+      </c>
+      <c r="P32" s="2" t="inlineStr">
+        <is>
+          <t>18,11%</t>
+        </is>
+      </c>
+      <c r="Q32" s="2" t="inlineStr">
+        <is>
+          <t>21,53%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>9,46; 14,35</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>9,16; 13,36</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>9,85; 14,11</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>13,72; 20,43</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>16,76; 25,37</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>11,36; 16,14</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>11,61; 16,44</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>10,86; 15,39</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>16,65; 22,87</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>18,4; 26,68</t>
+        </is>
+      </c>
+      <c r="M33" s="2" t="inlineStr">
+        <is>
+          <t>11,06; 14,47</t>
+        </is>
+      </c>
+      <c r="N33" s="2" t="inlineStr">
+        <is>
+          <t>10,94; 14,13</t>
+        </is>
+      </c>
+      <c r="O33" s="2" t="inlineStr">
+        <is>
+          <t>11,05; 14,03</t>
+        </is>
+      </c>
+      <c r="P33" s="2" t="inlineStr">
+        <is>
+          <t>15,87; 20,51</t>
+        </is>
+      </c>
+      <c r="Q33" s="2" t="inlineStr">
+        <is>
+          <t>18,45; 24,63</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_dif/P24_3-Urba-long_dif.xlsx
+++ b/data/long_dif/P24_3-Urba-long_dif.xlsx
@@ -680,7 +680,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -839,7 +839,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
@@ -998,7 +998,7 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -1161,7 +1161,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C13" s="5" t="n">
@@ -1320,7 +1320,7 @@
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -1479,7 +1479,7 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C19" s="5" t="n">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -1783,7 +1783,7 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C25" s="5" t="n">
@@ -1924,7 +1924,7 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -2069,7 +2069,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C31" s="5" t="n">
@@ -2228,7 +2228,7 @@
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C34" s="5" t="n">
@@ -2387,7 +2387,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C37" s="5" t="n">
